--- a/ParkByeongHyeon/naver_kmeans_10clusters.xlsx
+++ b/ParkByeongHyeon/naver_kmeans_10clusters.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>num</t>
   </si>
@@ -28,64 +28,16 @@
     <t>top_15_topics</t>
   </si>
   <si>
-    <t>['egjs-infinitegrid', 'spring-jdbc-plus', 'storybook-addon-preview']</t>
-  </si>
-  <si>
-    <t>['egjs-visible', 'prototype-minify', 'gdc', 'egjs-rotate', 'naveridlogin-sdk-android', 'android-imagecropview', 'claf', 'egjs-component', 'egjs-agent', 'smarteditor2', 'egjs-children-differ', 'cgd', 'hubblemon', 'isometrizer', 'image-sprite-webpack-plugin', 'ai-hackathon', 'eslint-config-naver', 'react-sample-code', 'babel-plugin-no-side-effect-class-properties', 'rye', 'egjs-jquery-pauseresume', 'egjs-jquery-transform', 'attention-dialog-embedding', 'generator-egjs', 'egjs-jsdoc-template', 'gobench2xml']</t>
-  </si>
-  <si>
-    <t>['arcus-memcached', 'egjs-axes', 'arcus-spring']</t>
-  </si>
-  <si>
-    <t>['fixture-monkey', 'egjs-list-differ', 'egjs-grid']</t>
-  </si>
-  <si>
-    <t>['fe-news', 'egjs-persist', 'arcus-java-client']</t>
-  </si>
-  <si>
-    <t>['billboard.js', 'egjs-view360', 'zeplin-flutter-gen', 'lispe']</t>
-  </si>
-  <si>
-    <t>['egjs-flicking', 'egjs-view3d', 'cover-checker', 'egjs-flicking-plugins']</t>
-  </si>
-  <si>
-    <t>['kapture-localization', 'kapture']</t>
-  </si>
-  <si>
-    <t>['arcus', 'auto-async-wrap']</t>
-  </si>
-  <si>
-    <t>['egjs-imready', 'arcus-c-client', 'egjs']</t>
-  </si>
-  <si>
-    <t>[('egjs', 2), ('react', 1), ('javascript', 1), ('grid', 1), ('vue', 1), ('layout', 1), ('svelte', 1), ('masonry', 1), ('infinite', 1), ('infinitegrid', 1), ('dom-recycle', 1), ('angluar', 1), ('spring-jdbc', 1), ('sql', 1), ('spring-data', 1)]</t>
-  </si>
-  <si>
-    <t>[('egjs', 7), ('javascript', 6), ('nlp', 4), ('typescript', 3), ('css', 3), ('web', 2), ('ast', 2), ('machinelearning', 2), ('ai', 2), ('language', 2), ('android', 2), ('pytorch', 2), ('naver', 2), ('jquery', 2), ('visible', 1)]</t>
-  </si>
-  <si>
-    <t>[('arcus', 2), ('memcached', 1), ('memory-cache-store', 1), ('arcus-memcached', 1), ('arcus-server', 1), ('javascript', 1), ('typescript', 1), ('virtual-scroll', 1), ('egjs', 1), ('axis', 1), ('coordinate', 1), ('cartesian', 1), ('spring', 1), ('arcus-spring', 1)]</t>
-  </si>
-  <si>
-    <t>[('kotlin', 1), ('java', 1), ('test', 1), ('random-generation', 1), ('property-based-testing', 1), ('diff', 1), ('ordered', 1), ('removed', 1), ('differ', 1), ('changed', 1), ('added', 1), ('purechanged', 1), ('react', 1), ('image', 1), ('grid', 1)]</t>
-  </si>
-  <si>
-    <t>[('react', 1), ('nodejs', 1), ('javascript', 1), ('css', 1), ('html', 1), ('frontend', 1), ('angular', 1), ('typescript', 1), ('vue', 1), ('es6', 1), ('svelte', 1), ('monthly', 1), ('deno', 1), ('fe-news', 1), ('storage', 1)]</t>
-  </si>
-  <si>
-    <t>[('d3', 1), ('svg', 1), ('chart', 1), ('graph', 1), ('data-visualizations', 1), ('web', 1), ('vedio', 1), ('touch', 1), ('spinner', 1), ('panorama', 1), ('360', 1), ('device-orientation', 1), ('360-photo', 1), ('dart', 1), ('flutter', 1)]</t>
-  </si>
-  <si>
-    <t>[('egjs', 3), ('react', 2), ('typescript', 2), ('slider', 2), ('carousel', 2), ('javascript', 1), ('angular', 1), ('mobile', 1), ('vue', 1), ('tablet', 1), ('desktop', 1), ('iscroll', 1), ('threejs', 1), ('ar', 1), ('gltf', 1)]</t>
-  </si>
-  <si>
-    <t>[('localization', 2), ('structure-from-motion', 2), ('sfm', 2), ('image-retrieval', 2), ('r2d2', 2), ('colmap', 2), ('visual-localization', 2), ('visual-features', 1)]</t>
-  </si>
-  <si>
-    <t>[('memcached', 1), ('zookeeper', 1), ('data', 1), ('key-value-store', 1), ('cache-cloud', 1), ('arcus-cloud', 1), ('memory-cache-cluster', 1), ('javascript', 1), ('middleware', 1), ('wrapper', 1), ('express', 1), ('es6', 1), ('expressjs', 1), ('error-handler', 1), ('error-handling', 1)]</t>
-  </si>
-  <si>
-    <t>[('egjs', 2), ('react', 1), ('image', 1), ('vedio', 1), ('ready', 1), ('lazy-loading', 1), ('arcus', 1), ('arcus-c-client', 1), ('libmemcached', 1), ('javascript', 1), ('agent', 1), ('frontend', 1), ('jquery-plugin', 1), ('library', 1), ('component', 1)]</t>
+    <t>['billboard.js', 'kapture-localization', 'kapture', 'egjs-view360', 'spring-jdbc-plus', 'storybook-addon-preview', 'tldr', 'cog', 'zeplin-flutter-gen', 'cover-checker', 'egjs-persist']</t>
+  </si>
+  <si>
+    <t>['egjs-flicking', 'arcus-memcached', 'fixture-monkey', 'arcus-c-client', 'egjs-grid', 'egjs-infinitegrid', 'lispe', 'fe-news', 'arcus', 'auto-async-wrap', 'egjs-imready', 'arcus-java-client', 'egjs-component', 'egjs-flicking-plugins', 'gdc', 'egjs-list-differ', 'egjs-view3d', 'egjs-axes', 'arcus-spring', 'egjs', 'egjs-visible', 'prototype-minify', 'egjs-rotate', 'naveridlogin-sdk-android', 'android-imagecropview', 'claf', 'egjs-agent', 'smarteditor2', 'egjs-children-differ', 'cgd', 'hubblemon', 'isometrizer', 'image-sprite-webpack-plugin', 'ai-hackathon', 'eslint-config-naver', 'react-sample-code', 'babel-plugin-no-side-effect-class-properties', 'rye', 'egjs-jquery-pauseresume', 'egjs-jquery-transform', 'attention-dialog-embedding', 'generator-egjs', 'egjs-jsdoc-template', 'gobench2xml']</t>
+  </si>
+  <si>
+    <t>[('localization', 2), ('structure-from-motion', 2), ('sfm', 2), ('image-retrieval', 2), ('r2d2', 2), ('colmap', 2), ('visual-localization', 2), ('egjs', 2), ('d3', 1), ('svg', 1), ('chart', 1), ('graph', 1), ('data-visualizations', 1), ('visual-features', 1), ('web', 1)]</t>
+  </si>
+  <si>
+    <t>[('egjs', 15), ('javascript', 12), ('react', 7), ('typescript', 7), ('vue', 4), ('arcus', 4), ('css', 4), ('nlp', 4), ('image', 3), ('language', 3), ('data', 3), ('web', 3), ('naver', 3), ('angular', 2), ('slider', 2)]</t>
   </si>
 </sst>
 </file>
@@ -443,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,10 +423,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -485,122 +437,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
         <v>7</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
